--- a/medicine/Mort/Liste_des_cimetières_de_Lyon/Liste_des_cimetières_de_Lyon.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_de_Lyon/Liste_des_cimetières_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Lyon</t>
+          <t>Liste_des_cimetières_de_Lyon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste des cimetières de la ville de Lyon recense tous les lieux d'inhumation existants[1] ou ayant existé, des neuf arrondissements de la ville. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste des cimetières de la ville de Lyon recense tous les lieux d'inhumation existants ou ayant existé, des neuf arrondissements de la ville. 
 Sommaire :
 Haut – A
 B
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Lyon</t>
+          <t>Liste_des_cimetières_de_Lyon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière de la Croix-Rousse
 Sommaire :
@@ -578,7 +592,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Lyon</t>
+          <t>Liste_des_cimetières_de_Lyon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -596,7 +610,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetières de La Guillotière
 Sommaire :
@@ -636,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Lyon</t>
+          <t>Liste_des_cimetières_de_Lyon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -654,7 +670,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière juif de Lyon (cimetière israélite de la Mouche)
 Sommaire :
@@ -694,7 +712,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Lyon</t>
+          <t>Liste_des_cimetières_de_Lyon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -712,7 +730,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière de Loyasse
 Nécropoles antiques de Lyon
@@ -753,7 +773,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Lyon</t>
+          <t>Liste_des_cimetières_de_Lyon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -771,7 +791,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière de Saint-Rambert
 Cimetière de la paroisse de Saint-Georges (disparu)
@@ -816,7 +838,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Lyon</t>
+          <t>Liste_des_cimetières_de_Lyon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -834,7 +856,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière de Vaise (disparu)
 Sommaire :
